--- a/output/ValueSet-ValidationProcessVS.xlsx
+++ b/output/ValueSet-ValidationProcessVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T20:37:10-04:00</t>
+    <t>2022-10-31T22:12:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-ValidationProcessVS.xlsx
+++ b/output/ValueSet-ValidationProcessVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:12:57-04:00</t>
+    <t>2022-11-04T11:24:16-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
